--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3551.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3551.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.597149752939826</v>
+        <v>0.8929305672645569</v>
       </c>
       <c r="B1">
-        <v>1.679648083093154</v>
+        <v>1.133575797080994</v>
       </c>
       <c r="C1">
-        <v>1.886894180104403</v>
+        <v>1.675683617591858</v>
       </c>
       <c r="D1">
-        <v>2.925870291205355</v>
+        <v>2.170413732528687</v>
       </c>
       <c r="E1">
-        <v>3.80664346382289</v>
+        <v>1.801521301269531</v>
       </c>
     </row>
   </sheetData>
